--- a/results_cnn_subnetwork_evaluation/embc2025/summary.xlsx
+++ b/results_cnn_subnetwork_evaluation/embc2025/summary.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\embc2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\embc2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFCD084-B956-41DF-B973-CE5B1DBB83DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8C5B67-0350-4D8D-AD2F-3CFF7180A4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Identifier</t>
   </si>
@@ -63,19 +64,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FN</t>
+    <t>Spherical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2d_manual</t>
+    <t>Euclidean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3d_auto</t>
+    <t>2D Manual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spherical_auto</t>
+    <t>Original FN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,6 +208,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -216,22 +226,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -249,7 +246,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -275,7 +272,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FN</c:v>
+                  <c:v>Original FN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -374,7 +371,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2d_manual</c:v>
+                  <c:v>2D Manual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -473,7 +470,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3d_auto</c:v>
+                  <c:v>Euclidean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -572,7 +569,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>spherical_auto</c:v>
+                  <c:v>Spherical</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -682,6 +679,84 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Selection Rate of Subnetworks</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -704,16 +779,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -748,6 +820,56 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Avverage Accuracy (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -764,16 +886,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -791,6 +910,34 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -822,7 +969,759 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000" b="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Original FN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.821309657286303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0826336787602457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4289641364906647</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7106664332179466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.745857050232244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.0754515545438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B2E-4A73-B097-E4708EE1F2AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2D Manual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8464864481869965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3943296069260338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9849454749560786</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7926990281422537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.551971596502243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.950961552005872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B2E-4A73-B097-E4708EE1F2AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Euclidean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.3641103320894858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1894782954056344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1947143066093764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5824227592320179</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9846853429192937</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.639550465370407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B2E-4A73-B097-E4708EE1F2AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spherical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$20:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1551482906856378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5831080311537606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6279279059764438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8265375500592631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.057345940380609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.732060504482721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8B2E-4A73-B097-E4708EE1F2AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="59536640"/>
+        <c:axId val="59532320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="59536640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Selection Rate of Subnetworks</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59532320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="59532320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Standard Deviation (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59536640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -875,7 +1774,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1403,6 +2845,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3069B24B-20DB-4FB7-A1F8-3745D8626F0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1684,6 +3169,643 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
+    <col min="2" max="6" width="9" style="2"/>
+    <col min="7" max="8" width="9" style="3"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>92.95198055346502</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.821309657286303</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.22477742288215599</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.92951980553464986</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.9238019038401265</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2">
+        <v>87.929174704510118</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.0826336787602457</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.35784123755085379</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.87929174704510138</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.8730096052460613</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="2">
+        <v>81.650389132547289</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7.4289641364906647</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.53392387936680785</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.81650389132547285</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.80955599722355343</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2">
+        <v>72.974166443193013</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.7106664332179466</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.74419947963056399</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.72974166443193</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.71460703588453134</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2">
+        <v>58.9607897415491</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11.745857050232244</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.94772440125958779</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.59960789741549092</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.58028125266274144</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2">
+        <v>50.786549479955099</v>
+      </c>
+      <c r="C7" s="2">
+        <v>13.0754515545438</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.3413545354372931</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.51786549479955135</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.47922167909201002</v>
+      </c>
+      <c r="G7" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>92.741442400020773</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.8464864481869965</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.23921626169828369</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.92741442400020779</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.92185229683563652</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2">
+        <v>88.330550725640663</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.3943296069260338</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.34634129717308643</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.88330550725640644</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.87758477915596178</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2">
+        <v>84.464709902334803</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.9849454749560786</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.44695112263267622</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.844647099023348</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.83922304962233418</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2">
+        <v>75.654829770730416</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8.7926990281422537</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.68619710638475417</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.75654829770730414</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.74822801158375163</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2">
+        <v>62.7637796751414</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10.551971596502243</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.96260604902274072</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.60263779675141371</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.58369592063873199</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="2">
+        <v>55.136330475753802</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10.950961552005872</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.1823864085550631</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.53136330475753824</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.50065137456864839</v>
+      </c>
+      <c r="G13" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>93.364844563245939</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4.3641103320894858</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.23039161212288661</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.93364844563245919</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.92795392868602933</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2">
+        <v>89.658820578032675</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5.1894782954056344</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.3106885420184311</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.89658820578032672</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.89142765640935695</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2">
+        <v>87.721398974039573</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6.1947143066093764</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.37380231045619478</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.87721398974039588</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.87098125161692186</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="2">
+        <v>82.713010781523494</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7.5824227592320179</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.50885428930694421</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.82713010781523499</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.82083206085401383</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="2">
+        <v>65.281994942286119</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9.9846853429192937</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.85392160309000043</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.65281994942286115</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.64180111656241556</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="2">
+        <v>58.8487328321756</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10.639550465370407</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.2572477482736579</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.58848732832175599</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.56336141623694114</v>
+      </c>
+      <c r="G19" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>92.792619313315839</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4.1551482906856378</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.2333106735925089</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.92792619313315849</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.92252754637250567</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2">
+        <v>90.507674518522364</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5.5831080311537606</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.294505314916232</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.90507674518522374</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.89967416407340772</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="2">
+        <v>88.916738034066057</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5.6279279059764438</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.34092380459952032</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.88916738034066045</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.88497604157889365</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="2">
+        <v>82.724562207862235</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6.8265375500592631</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.49459862103502222</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.82724562207862251</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.82190066939066808</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="2">
+        <v>68.097451823401016</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10.057345940380609</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.87494969071584328</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.68097451823401012</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.66759041317676027</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="2">
+        <v>60.506671049634228</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10.732060504482721</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.1635675706983439</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.6050667104963422</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.58154361874096128</v>
+      </c>
+      <c r="G25" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE91ED3A-E8AD-4506-8B3A-F341FFE4ECAD}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,34 +3820,34 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
+      <c r="A2" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="2">
-        <v>92.95198055346502</v>
+        <v>4.821309657286303</v>
       </c>
       <c r="C2" s="2">
         <v>4.821309657286303</v>
@@ -1739,139 +3861,139 @@
       <c r="F2" s="2">
         <v>0.9238019038401265</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="7">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9">
-        <v>87.929174704510118</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2">
         <v>6.0826336787602457</v>
       </c>
-      <c r="D3" s="9">
+      <c r="C3" s="2">
+        <v>6.0826336787602457</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.35784123755085379</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="2">
         <v>0.87929174704510138</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="2">
         <v>0.8730096052460613</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="3">
         <v>0.5</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9">
-        <v>81.650389132547289</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="A4" s="9"/>
+      <c r="B4" s="2">
         <v>7.4289641364906647</v>
       </c>
-      <c r="D4" s="9">
+      <c r="C4" s="2">
+        <v>7.4289641364906647</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.53392387936680785</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="2">
         <v>0.81650389132547285</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="2">
         <v>0.80955599722355343</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="3">
         <v>0.3</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9">
-        <v>72.974166443193013</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2">
         <v>9.7106664332179466</v>
       </c>
-      <c r="D5" s="9">
+      <c r="C5" s="2">
+        <v>9.7106664332179466</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.74419947963056399</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="2">
         <v>0.72974166443193</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="2">
         <v>0.71460703588453134</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="3">
         <v>0.2</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9">
-        <v>58.9607897415491</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2">
         <v>11.745857050232244</v>
       </c>
-      <c r="D6" s="9">
+      <c r="C6" s="2">
+        <v>11.745857050232244</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.94772440125958779</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="2">
         <v>0.59960789741549092</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="2">
         <v>0.58028125266274144</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="3">
         <v>0.1</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9">
-        <v>50.786549479955099</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2">
         <v>13.0754515545438</v>
       </c>
-      <c r="D7" s="9">
+      <c r="C7" s="2">
+        <v>13.0754515545438</v>
+      </c>
+      <c r="D7" s="2">
         <v>1.3413545354372931</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="2">
         <v>0.51786549479955135</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="2">
         <v>0.47922167909201002</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
+      <c r="A8" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>92.741442400020773</v>
+        <v>4.8464864481869965</v>
       </c>
       <c r="C8" s="2">
         <v>4.8464864481869965</v>
@@ -1885,139 +4007,139 @@
       <c r="F8" s="2">
         <v>0.92185229683563652</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="7">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9">
-        <v>88.330550725640663</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2">
         <v>5.3943296069260338</v>
       </c>
-      <c r="D9" s="9">
+      <c r="C9" s="2">
+        <v>5.3943296069260338</v>
+      </c>
+      <c r="D9" s="2">
         <v>0.34634129717308643</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="2">
         <v>0.88330550725640644</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="2">
         <v>0.87758477915596178</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="3">
         <v>0.5</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9">
-        <v>84.464709902334803</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2">
         <v>6.9849454749560786</v>
       </c>
-      <c r="D10" s="9">
+      <c r="C10" s="2">
+        <v>6.9849454749560786</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.44695112263267622</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="2">
         <v>0.844647099023348</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="2">
         <v>0.83922304962233418</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="3">
         <v>0.3</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9">
-        <v>75.654829770730416</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2">
         <v>8.7926990281422537</v>
       </c>
-      <c r="D11" s="9">
+      <c r="C11" s="2">
+        <v>8.7926990281422537</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.68619710638475417</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="2">
         <v>0.75654829770730414</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="2">
         <v>0.74822801158375163</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="3">
         <v>0.2</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9">
-        <v>62.7637796751414</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2">
         <v>10.551971596502243</v>
       </c>
-      <c r="D12" s="9">
+      <c r="C12" s="2">
+        <v>10.551971596502243</v>
+      </c>
+      <c r="D12" s="2">
         <v>0.96260604902274072</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="2">
         <v>0.60263779675141371</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="2">
         <v>0.58369592063873199</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="3">
         <v>0.1</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9">
-        <v>55.136330475753802</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="A13" s="10"/>
+      <c r="B13" s="2">
         <v>10.950961552005872</v>
       </c>
-      <c r="D13" s="9">
+      <c r="C13" s="2">
+        <v>10.950961552005872</v>
+      </c>
+      <c r="D13" s="2">
         <v>1.1823864085550631</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="2">
         <v>0.53136330475753824</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="2">
         <v>0.50065137456864839</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
+      <c r="A14" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="2">
-        <v>93.364844563245939</v>
+        <v>4.3641103320894858</v>
       </c>
       <c r="C14" s="2">
         <v>4.3641103320894858</v>
@@ -2031,139 +4153,139 @@
       <c r="F14" s="2">
         <v>0.92795392868602933</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="7">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9">
-        <v>89.658820578032675</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2">
         <v>5.1894782954056344</v>
       </c>
-      <c r="D15" s="9">
+      <c r="C15" s="2">
+        <v>5.1894782954056344</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.3106885420184311</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="2">
         <v>0.89658820578032672</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="2">
         <v>0.89142765640935695</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="3">
         <v>0.5</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9">
-        <v>87.721398974039573</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2">
         <v>6.1947143066093764</v>
       </c>
-      <c r="D16" s="9">
+      <c r="C16" s="2">
+        <v>6.1947143066093764</v>
+      </c>
+      <c r="D16" s="2">
         <v>0.37380231045619478</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="2">
         <v>0.87721398974039588</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="2">
         <v>0.87098125161692186</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="3">
         <v>0.3</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9">
-        <v>82.713010781523494</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="A17" s="9"/>
+      <c r="B17" s="2">
         <v>7.5824227592320179</v>
       </c>
-      <c r="D17" s="9">
+      <c r="C17" s="2">
+        <v>7.5824227592320179</v>
+      </c>
+      <c r="D17" s="2">
         <v>0.50885428930694421</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="2">
         <v>0.82713010781523499</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="2">
         <v>0.82083206085401383</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="3">
         <v>0.2</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9">
-        <v>65.281994942286119</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="A18" s="9"/>
+      <c r="B18" s="2">
         <v>9.9846853429192937</v>
       </c>
-      <c r="D18" s="9">
+      <c r="C18" s="2">
+        <v>9.9846853429192937</v>
+      </c>
+      <c r="D18" s="2">
         <v>0.85392160309000043</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="2">
         <v>0.65281994942286115</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="2">
         <v>0.64180111656241556</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="3">
         <v>0.1</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9">
-        <v>58.8487328321756</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="A19" s="10"/>
+      <c r="B19" s="2">
         <v>10.639550465370407</v>
       </c>
-      <c r="D19" s="9">
+      <c r="C19" s="2">
+        <v>10.639550465370407</v>
+      </c>
+      <c r="D19" s="2">
         <v>1.2572477482736579</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="2">
         <v>0.58848732832175599</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="2">
         <v>0.56336141623694114</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>11</v>
+      <c r="A20" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B20" s="2">
-        <v>92.792619313315839</v>
+        <v>4.1551482906856378</v>
       </c>
       <c r="C20" s="2">
         <v>4.1551482906856378</v>
@@ -2177,130 +4299,130 @@
       <c r="F20" s="2">
         <v>0.92252754637250567</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="7">
         <v>1</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="7">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9">
-        <v>90.507674518522364</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2">
         <v>5.5831080311537606</v>
       </c>
-      <c r="D21" s="9">
+      <c r="C21" s="2">
+        <v>5.5831080311537606</v>
+      </c>
+      <c r="D21" s="2">
         <v>0.294505314916232</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="2">
         <v>0.90507674518522374</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="2">
         <v>0.89967416407340772</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="3">
         <v>0.5</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9">
-        <v>88.916738034066057</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="A22" s="9"/>
+      <c r="B22" s="2">
         <v>5.6279279059764438</v>
       </c>
-      <c r="D22" s="9">
+      <c r="C22" s="2">
+        <v>5.6279279059764438</v>
+      </c>
+      <c r="D22" s="2">
         <v>0.34092380459952032</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="2">
         <v>0.88916738034066045</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="2">
         <v>0.88497604157889365</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="3">
         <v>0.3</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="9">
-        <v>82.724562207862235</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="A23" s="9"/>
+      <c r="B23" s="2">
         <v>6.8265375500592631</v>
       </c>
-      <c r="D23" s="9">
+      <c r="C23" s="2">
+        <v>6.8265375500592631</v>
+      </c>
+      <c r="D23" s="2">
         <v>0.49459862103502222</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="2">
         <v>0.82724562207862251</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="2">
         <v>0.82190066939066808</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="3">
         <v>0.2</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9">
-        <v>68.097451823401016</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="A24" s="9"/>
+      <c r="B24" s="2">
         <v>10.057345940380609</v>
       </c>
-      <c r="D24" s="9">
+      <c r="C24" s="2">
+        <v>10.057345940380609</v>
+      </c>
+      <c r="D24" s="2">
         <v>0.87494969071584328</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="2">
         <v>0.68097451823401012</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="2">
         <v>0.66759041317676027</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="3">
         <v>0.1</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9">
-        <v>60.506671049634228</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="A25" s="10"/>
+      <c r="B25" s="2">
         <v>10.732060504482721</v>
       </c>
-      <c r="D25" s="9">
+      <c r="C25" s="2">
+        <v>10.732060504482721</v>
+      </c>
+      <c r="D25" s="2">
         <v>1.1635675706983439</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="2">
         <v>0.6050667104963422</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="2">
         <v>0.58154361874096128</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="3">
         <v>4</v>
       </c>
     </row>
